--- a/Process Results/Unified_IBNP_GBR.xlsx
+++ b/Process Results/Unified_IBNP_GBR.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03546079664777944</v>
+        <v>0.04732739100210102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03025280537360516</v>
+        <v>0.05314244349773815</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.03434858045726832</v>
+        <v>0.04578297362703861</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.03265042689424189</v>
+        <v>0.05006663372633584</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6265761200070439</v>
+        <v>0.6902818379710383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4683084281830925</v>
+        <v>0.5572434439377359</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3044136904779564</v>
+        <v>0.3854051579757236</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5360033226929833</v>
+        <v>0.6166689112546253</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7320265082515954</v>
+        <v>0.8080897577730309</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5663510780699796</v>
+        <v>0.6606393009702521</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4347314662587389</v>
+        <v>0.4961885134910253</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6386185443922351</v>
+        <v>0.726963015429393</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9610830397368429</v>
+        <v>0.94405633691433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.718815810836989</v>
+        <v>0.7765632980031182</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.5141693564764397</v>
+        <v>0.560100674989408</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8224800966488359</v>
+        <v>0.8521575455927056</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9671765564961459</v>
+        <v>0.96856111018283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7816112913807289</v>
+        <v>0.8129823164668732</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7500644045701069</v>
+        <v>0.7929287532181065</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8645486852323359</v>
+        <v>0.8839785134813792</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9914232912912267</v>
+        <v>0.9887258081597843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8438563301183286</v>
+        <v>0.8802811554771276</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8142499804007526</v>
+        <v>0.8457701639635443</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9117071975553223</v>
+        <v>0.9313573611981835</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9937260328013328</v>
+        <v>0.991511995355792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8930510974293249</v>
+        <v>0.9304414090991671</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8710193026404732</v>
+        <v>0.8842338247404311</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9407026510108583</v>
+        <v>0.9600064350771201</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9937260328013328</v>
+        <v>0.991511995355792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8930510974293249</v>
+        <v>0.9304414090991671</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.907730074182771</v>
+        <v>0.9211028599162592</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9407026510108583</v>
+        <v>0.9600064350771201</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9950979837181051</v>
+        <v>0.9924023963175874</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9188525676183675</v>
+        <v>0.93462874148203</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9418352486789415</v>
+        <v>0.9449540355699911</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9554565939363172</v>
+        <v>0.9626495229061592</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9971503571894076</v>
+        <v>0.9960833327867472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.928947047909513</v>
+        <v>0.9512345956593582</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9464665245757431</v>
+        <v>0.9508482129928538</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.961841159414722</v>
+        <v>0.9731425079237142</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9972670122368795</v>
+        <v>0.9960833327867472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9289739309668535</v>
+        <v>0.9512640054072257</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9477560063028474</v>
+        <v>0.9519695453167978</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9619098377593533</v>
+        <v>0.9731578977018803</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9972670122368795</v>
+        <v>0.9966653501066387</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9536959584526638</v>
+        <v>0.9541275956888926</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9598635052949792</v>
+        <v>0.9640601466769982</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9749949469643953</v>
+        <v>0.9749326972431519</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9972670122368795</v>
+        <v>0.9970912354966371</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9536959584526638</v>
+        <v>0.9542588040191029</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9601776691926582</v>
+        <v>0.9644455360220813</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9749949469643953</v>
+        <v>0.9752049305506222</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4224,17 +4224,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9552924718041272</v>
+        <v>0.9558585795039523</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9614193378160875</v>
+        <v>0.9656960123472859</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.977135119763121</v>
+        <v>0.9774311798620723</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4262,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9582268527622031</v>
+        <v>0.9587038305895179</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9635916783919471</v>
+        <v>0.9677313008686078</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9786678713046584</v>
+        <v>0.9789165831170846</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9784330808141478</v>
+        <v>0.9795343258131766</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9800128841055116</v>
+        <v>0.9813109480573796</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9890989898041044</v>
+        <v>0.989661369383723</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4338,17 +4338,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9812989886142398</v>
+        <v>0.9823608424814414</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9825032262410488</v>
+        <v>0.9837369831066896</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9905612371008979</v>
+        <v>0.9911019441362255</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4833,22 +4833,22 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>8.348055463964041</v>
+        <v>5.510312584041871</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.146877598536504</v>
+        <v>1.072023892207251</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.063439152863725</v>
+        <v>1.295779161085284</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1</v>
+        <v>1.005455309568886</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.002594201737536</v>
+        <v>1.030211679322626</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.001089737595947</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
         <v>1</v>
@@ -4860,46 +4860,46 @@
         <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.001325455396991</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4908,19 +4908,19 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>5.510312584041871</v>
+        <v>11.21717803448361</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.072023892207251</v>
+        <v>1.193636057530425</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.295779161085284</v>
+        <v>1.021796273806187</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.005455309568886</v>
+        <v>1.016139672796504</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.030211679322626</v>
+        <v>1.282577745002391</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
@@ -4935,43 +4935,43 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.001325455396991</v>
+        <v>1.004423707551115</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.006950074499321</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.006800102817555</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,46 +4983,46 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>11.21717803448361</v>
+        <v>22.62367013283644</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.193636057530425</v>
+        <v>1.464644384813624</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.021796273806187</v>
+        <v>2.871306193341829</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.016139672796504</v>
+        <v>1.002369089634664</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.282577745002391</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>1.001861169839469</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>1.004300481350688</v>
       </c>
       <c r="J40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.004423707551115</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.006950074499321</v>
+        <v>1.000044474358496</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.006800102817555</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>1</v>
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>1.050109724637667</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>1</v>
@@ -5058,16 +5058,16 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>22.62367013283645</v>
+        <v>4.614351381509918</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.464644384813624</v>
+        <v>1.751690521350107</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>2.871306193341829</v>
+        <v>1.010021171489061</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.002369089634664</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
@@ -5076,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.001861169839469</v>
+        <v>1.167366061046215</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.004300481350688</v>
+        <v>1.142248742412314</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>1.000370242876267</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>1</v>
@@ -5091,22 +5091,22 @@
         <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.000044474358496</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.003954932730968</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>1.12186706435952</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>1.017668473072959</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1.050109724637667</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>1</v>
@@ -5133,13 +5133,13 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>4.614351381509918</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.751690521350107</v>
+        <v>1.03903778828732</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.010021171489061</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5148,16 +5148,16 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>1.03316911334135</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.167366061046215</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.142248742412314</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.000370242876267</v>
+        <v>1.003270141586939</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
@@ -5169,16 +5169,16 @@
         <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.003954932730968</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.12186706435952</v>
+        <v>1.046780436688693</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.017668473072959</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5208,58 +5208,58 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v/>
+        <v>6.235611921369689</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.03903778828732</v>
+        <v>1.034293446795125</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>1.233715123969434</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.195223831114804</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.03316911334135</v>
+        <v>1.254201591021433</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1</v>
+        <v>1.115683885277312</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>1.001264977530924</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.003270141586939</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.002067348083547</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>1.001971896985163</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>1.016589732440795</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.046780436688693</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,55 +5283,55 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>6.235611921369689</v>
+        <v>1.696649630891539</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.034293446795125</v>
+        <v>3.398286364549167</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.233715123969434</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>4.775277247030552</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.195223831114804</v>
+        <v>1.336155494551957</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.254201591021433</v>
+        <v>1.017961252718654</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.115683885277312</v>
+        <v>1.404991849577315</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.001264977530924</v>
+        <v>1.181225763768446</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.002067348083547</v>
+        <v>1.013287673610953</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.001971896985163</v>
+        <v>1.156508111695413</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.016589732440795</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,37 +5358,37 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>1.696649630891539</v>
+        <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>3.398286364549167</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E45" s="4" t="n">
-        <v>4.775277247030552</v>
+        <v>1.345308939715451</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.336155494551957</v>
+        <v>1.240527731821204</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.017961252718654</v>
+        <v>1.024442140229712</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.404991849577315</v>
+        <v>1.000984677953061</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.181225763768446</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.013287673610953</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.156508111695413</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>1</v>
@@ -5439,22 +5439,22 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v/>
+        <v>1.470192103509248</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.345308939715451</v>
+        <v>3.868838181750578</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.240527731821204</v>
+        <v>1.065205683411407</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.024442140229712</v>
+        <v>1.001344321560051</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.000984677953061</v>
+        <v>1.003020489495343</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>1.001064491018854</v>
       </c>
       <c r="J46" s="4" t="n">
         <v>1</v>
@@ -5463,13 +5463,13 @@
         <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>1.007040741735239</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>1.005051027787164</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -5511,40 +5511,40 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v/>
+        <v>4.044300451734854</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.470192103509248</v>
+        <v>1.02529513465983</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>3.868838181750578</v>
+        <v>1.162310476008356</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.065205683411407</v>
+        <v>1.00686258135761</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.001344321560051</v>
+        <v>1.148342633993045</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.003020489495343</v>
+        <v>1.013405006845156</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.001064491018854</v>
+        <v>1.075621849621458</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>1.045520594203797</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.007040741735239</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.005051027787164</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
         <v>1</v>
@@ -5583,34 +5583,34 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v/>
+        <v>3.176021717180077</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>4.044300451734854</v>
+        <v>1.644249060576527</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.02529513465983</v>
+        <v>1.04524750623639</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.162310476008356</v>
+        <v>1.51821920051431</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.00686258135761</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.148342633993045</v>
+        <v>1.072421706937567</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.013405006845156</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.075621849621458</v>
+        <v>1.020953271410984</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.045520594203797</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v>1.00037580337092</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>1</v>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>3.176021717180077</v>
+        <v>2.470929104839492</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.644249060576527</v>
+        <v>1.156597423241848</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.04524750623639</v>
+        <v>1.077912106558073</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.51821920051431</v>
+        <v>1.053682110292121</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.017449243318344</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.072421706937567</v>
+        <v>1.005396079582997</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.020953271410984</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.00037580337092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1</v>
+        <v>1.003756982730293</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>2.470929104839492</v>
+        <v>4.133375584597228</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.156597423241848</v>
+        <v>1.956348639860417</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.077912106558073</v>
+        <v>1.001945872318345</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.053682110292121</v>
+        <v>1.023864819520195</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.017449243318344</v>
+        <v>1.013488539351892</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.005396079582997</v>
+        <v>1.21389050991483</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001584631642738</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.003589712341961</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001096069594561</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,31 +5808,31 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>4.133375584597228</v>
+        <v>10.3813638925418</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.956348639860417</v>
+        <v>1.041074013753167</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.001945872318345</v>
+        <v>1.276387434327457</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.023864819520195</v>
+        <v>1.38895073896657</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.013488539351892</v>
+        <v>1.005355864733163</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.21389050991483</v>
+        <v>1.021075267768543</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.001584631642738</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.003589712341961</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>1</v>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>10.3813638925418</v>
+        <v>2.539378628728449</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.041074013753167</v>
+        <v>1.703533696360421</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.276387434327457</v>
+        <v>1.11562511739414</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.38895073896657</v>
+        <v>1.27277959066225</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.005355864733163</v>
+        <v>1.443037731129625</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.021075267768543</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>1.002026693689249</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>1.006478623038948</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,19 +5958,19 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>2.539378628728449</v>
+        <v>31.57434640522876</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.703533696360421</v>
+        <v>1.598085233006443</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.11562511739414</v>
+        <v>1.067365919055977</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.27277959066225</v>
+        <v>1.006513778446584</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.443037731129625</v>
+        <v>1.010682549825776</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.002026693689249</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,22 +6033,22 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>31.57434640522876</v>
+        <v>147.6163691478612</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.598085233006443</v>
+        <v>1.106365210724822</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.067365919055977</v>
+        <v>1.377287632246489</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.006513778446584</v>
+        <v>1.008046921910118</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.010682549825775</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.005549556080076</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>147.6163691478612</v>
+        <v>4.397441589433376</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.106365210724822</v>
+        <v>1.764297207761477</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.377287632246489</v>
+        <v>1.031470294745652</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.008046921910118</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
+        <v>1.100140085160682</v>
+      </c>
+      <c r="G55" s="4" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="G55" s="4" t="n">
-        <v>1.005549556080076</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>4.397441589433376</v>
+        <v>7.470881262934975</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.764297207761477</v>
+        <v>1.133376282433281</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.031470294745652</v>
+        <v>1.579799403724872</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1</v>
+        <v>1.007579328384792</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.100140085160682</v>
+        <v>1.004999401857278</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>7.470881262934976</v>
+        <v>3.89630543771693</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.133376282433281</v>
+        <v>2.472915297452668</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.579799403724872</v>
+        <v>1.288544421745618</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.007579328384792</v>
+        <v>1.047950498863114</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>3.89630543771693</v>
+        <v>87.55001137483886</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>2.472915297452668</v>
+        <v>1.030283528594518</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.288544421745618</v>
+        <v>1.0758075974056</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>87.55001137483886</v>
+        <v>2.826967836668385</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.030283528594518</v>
+        <v>1.144313547802447</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>2.826967836668385</v>
+        <v>2.617011931028847</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.04391806106778286</v>
+        <v>0.04811499434921625</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.03434858045726832</v>
+        <v>0.04578297362703861</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.03025280537360516</v>
+        <v>0.05314244349773815</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.03546079664777944</v>
+        <v>0.04732739100210102</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.0139032084358151</v>
+        <v>0.01408085939121323</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.01019801484231477</v>
+        <v>0.0131652982525236</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.008977368362930206</v>
+        <v>0.02427064015194174</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.01510407718182268</v>
+        <v>0.01488763792613186</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.03265042689424189</v>
+        <v>0.05006663372633584</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>8.1509345340287</v>
+        <v>7.643443769858711</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>8.862482420683007</v>
+        <v>8.418089246787373</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>15.4798347591156</v>
+        <v>10.48584534810586</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>17.66954437686837</v>
+        <v>14.58525017659212</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>19.38311690166666</v>
+        <v>19.08148303151218</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>25.6694493318808</v>
+        <v>25.62286518303486</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>42.29299610824229</v>
+        <v>18.12643657210356</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>31.42442821640806</v>
+        <v>30.99799704751203</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>16.57468956799199</v>
+        <v>12.53554776234899</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3579732406249727</v>
+        <v>0.367764253795304</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.3044136904779564</v>
+        <v>0.3854051579757236</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.4683084281830925</v>
+        <v>0.5572434439377359</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.6265761200070439</v>
+        <v>0.6902818379710383</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.2694875144196421</v>
+        <v>0.2686836795425442</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2617774252805672</v>
+        <v>0.3373326622188565</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3796798052356646</v>
+        <v>0.4399402192785219</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.4746369891752736</v>
+        <v>0.4614869564786636</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.5360033226929833</v>
+        <v>0.6166689112546253</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.355963478913727</v>
+        <v>1.363004235044698</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.428094332998533</v>
+        <v>1.287446478654237</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.209354869540285</v>
+        <v>1.185548808437967</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.168296213145445</v>
+        <v>1.170666405113987</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.637595804978498</v>
+        <v>1.637467602441795</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.720952170458371</v>
+        <v>1.47928659513067</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.517553793328869</v>
+        <v>1.441925179128202</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.545525036160156</v>
+        <v>1.549170791283211</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.188825541342865</v>
+        <v>1.178107606775977</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.4853986407158587</v>
+        <v>0.5012642354210525</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.4347314662587389</v>
+        <v>0.4961885134910253</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.5663510780699796</v>
+        <v>0.6606393009702521</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.7320265082515954</v>
+        <v>0.8080897577730309</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.4413116231076886</v>
+        <v>0.4399608205557694</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.4505064282135961</v>
+        <v>0.4990116853200967</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.5761845286857489</v>
+        <v>0.6343608794888834</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7335633498580625</v>
+        <v>0.7149221135349318</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6386185443922351</v>
+        <v>0.726963015429393</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.328143618336744</v>
+        <v>1.291284468433147</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.18272864143315</v>
+        <v>1.128806209254456</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.269205336884996</v>
+        <v>1.175472450492445</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.312907427399503</v>
+        <v>1.168256778202463</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.242656501153881</v>
+        <v>1.243274923380974</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.196422745543508</v>
+        <v>1.16355737003487</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.243348798152125</v>
+        <v>1.236712544820701</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.299938040072047</v>
+        <v>1.314717140958697</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.291056382142249</v>
+        <v>1.171864614347454</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6446791070160977</v>
+        <v>0.6472747217802215</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.5141693564764397</v>
+        <v>0.560100674989408</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.718815810836989</v>
+        <v>0.7765632980031182</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9610830397368429</v>
+        <v>0.94405633691433</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5483987574895404</v>
+        <v>0.5469922554671048</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.5389961377283098</v>
+        <v>0.5806287241877199</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7163983412552744</v>
+        <v>0.7845220576073952</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9535869032831753</v>
+        <v>0.9399203571147946</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8224800966488359</v>
+        <v>0.8521575455927056</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.232400709985847</v>
+        <v>1.231527824746085</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.458788617256844</v>
+        <v>1.4156896940592</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.087359626203298</v>
+        <v>1.046897681821178</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.006340260422212</v>
+        <v>1.025956897179033</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.422766770260097</v>
+        <v>1.425164295203252</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.388007840514278</v>
+        <v>1.363227970443249</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.113978393061719</v>
+        <v>1.057145019711143</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.005208750098303</v>
+        <v>1.018509942415968</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.046849943312755</v>
+        <v>1.036427289500106</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7945029891996805</v>
+        <v>0.7971368301271233</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7500644045701069</v>
+        <v>0.7929287532181065</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.7816112913807289</v>
+        <v>0.8129823164668732</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9671765564961459</v>
+        <v>0.96856111018283</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7802435290080433</v>
+        <v>0.7795538322444137</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7481308651738074</v>
+        <v>0.7915293172554785</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.7980522729836315</v>
+        <v>0.8293535860531963</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9585538991593922</v>
+        <v>0.9573182288005858</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8645486852323359</v>
+        <v>0.8839785134813792</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.068550190537811</v>
+        <v>1.068741362296917</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.08557341934848</v>
+        <v>1.066640805407775</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.079636821299808</v>
+        <v>1.082780200315706</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.025069605577415</v>
+        <v>1.020819231502231</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.092079629570475</v>
+        <v>1.092206219050461</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.103242125388472</v>
+        <v>1.075645784330582</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.095450795033523</v>
+        <v>1.094035938784421</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.036940878328819</v>
+        <v>1.035046495672653</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.052353213438612</v>
+        <v>1.051799715908968</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8489663204921791</v>
+        <v>0.8519331017671078</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8142499804007526</v>
+        <v>0.8457701639635443</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8438563301183286</v>
+        <v>0.8802811554771276</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9914232912912267</v>
+        <v>0.9887258081597843</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8520880641338638</v>
+        <v>0.8514335436619683</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8253694857630676</v>
+        <v>0.851405173279919</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8742269969182289</v>
+        <v>0.9073426291019343</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9939637221198543</v>
+        <v>0.9908688779635977</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9117071975553223</v>
+        <v>0.9313573611981835</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.043109744779392</v>
+        <v>1.043767398470558</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.069719771085263</v>
+        <v>1.045477675160157</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.058297562695415</v>
+        <v>1.056982082724299</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.002322662308152</v>
+        <v>1.0028179573882</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.044382439485789</v>
+        <v>1.044321898508237</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.063718754983909</v>
+        <v>1.042535289065456</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.040985235557741</v>
+        <v>1.040085888960575</v>
       </c>
       <c r="U7" s="22" t="n">
         <v>1.001849852026692</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.030310112501784</v>
+        <v>1.02990002005625</v>
       </c>
     </row>
     <row r="8">
@@ -7087,41 +7087,41 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8855650418948965</v>
+        <v>0.8892199973024071</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8710193026404732</v>
+        <v>0.8842338247404311</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.8930510974293249</v>
+        <v>0.9304414090991671</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9937260328013328</v>
+        <v>0.991511995355792</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8899058110768483</v>
+        <v>0.8891706947706622</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8779610017975995</v>
+        <v>0.8876199384372052</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9100573963178589</v>
+        <v>0.9437142649813106</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9958024079256761</v>
+        <v>0.9927018387656847</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9407026510108583</v>
+        <v>0.9600064350771201</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.036722275528607</v>
+        <v>1.036534241005267</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.042146909294673</v>
+        <v>1.041696024449926</v>
       </c>
       <c r="P8" s="22" t="n">
         <v>1</v>
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9180850053618629</v>
+        <v>0.9217069749905564</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.907730074182771</v>
+        <v>0.9211028599162592</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.8930510974293249</v>
+        <v>0.9304414090991671</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9937260328013328</v>
+        <v>0.991511995355792</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9269318154043281</v>
+        <v>0.9261661133673879</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9173292054516758</v>
+        <v>0.927421253566542</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9100573963178589</v>
+        <v>0.9437142649813106</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9958024079256761</v>
+        <v>0.9927018387656847</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9407026510108583</v>
+        <v>0.9600064350771201</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.027001287217166</v>
+        <v>1.027400384970975</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.037571934065174</v>
+        <v>1.025894150036512</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.0288913705647</v>
+        <v>1.004500371911561</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.001380612836422</v>
+        <v>1.000898023388487</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>1.026893181402853</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.035499201757914</v>
+        <v>1.023645139890221</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.016697741060738</v>
+        <v>1.004094099457162</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.001203775110662</v>
+        <v>1.000675564563083</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.015135991700561</v>
+        <v>1.002699197650024</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9428744822814119</v>
+        <v>0.9469621009357307</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9418352486789415</v>
+        <v>0.9449540355699911</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9188525676183675</v>
+        <v>0.93462874148203</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9950979837181051</v>
+        <v>0.9924023963175874</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9518599608640729</v>
+        <v>0.9510736666633526</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9498936599944315</v>
+        <v>0.9493502588442871</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9252532990719841</v>
+        <v>0.9475779250412866</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9970011300794748</v>
+        <v>0.9933724729496621</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9554565939363172</v>
+        <v>0.9626495229061592</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.004324611162088</v>
+        <v>1.004546805619042</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.004917288775609</v>
+        <v>1.006237528177026</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.010985962979142</v>
+        <v>1.017767326683102</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.002062483800473</v>
+        <v>1.003709116869143</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.003516712733931</v>
+        <v>1.003948620936528</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.004395890917414</v>
+        <v>1.004935776170659</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.00818505109096</v>
+        <v>1.009264821597451</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.001196570780654</v>
+        <v>1.003356111793636</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.006524223389808</v>
+        <v>1.010738221776123</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9469520477919339</v>
+        <v>0.9512677535372854</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9464665245757431</v>
+        <v>0.9508482129928538</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.928947047909513</v>
+        <v>0.9512345956593582</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9971503571894076</v>
+        <v>0.9960833327867472</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9552073789093626</v>
+        <v>0.9548290960557194</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.95406928890691</v>
+        <v>0.9540360392295001</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9328265445969672</v>
+        <v>0.9563570654664771</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9981941125000067</v>
+        <v>0.9967063420216024</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.961841159414722</v>
+        <v>0.9731425079237142</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.001313364104287</v>
+        <v>1.001326688536138</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.001362416623961</v>
+        <v>1.001179296872647</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.00002893927851</v>
+        <v>1.000030917449809</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.00011698842269</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
         <v>1.001534284858109</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.001679544384711</v>
+        <v>1.001310902088785</v>
       </c>
       <c r="T11" s="22" t="n">
         <v>1.000062633895153</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000125267790307</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.0000729638506</v>
+        <v>1.000015458724904</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9481957406199848</v>
+        <v>0.9525297895607012</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9477560063028474</v>
+        <v>0.9519695453167978</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9289739309668535</v>
+        <v>0.9512640054072257</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9972670122368795</v>
+        <v>0.9960833327867472</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.956672939127177</v>
+        <v>0.9562940758798794</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.955671690623719</v>
+        <v>0.9552866870661022</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9328849711569578</v>
+        <v>0.9564169658346446</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9983191540707766</v>
+        <v>0.9967063420216024</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9619098377593533</v>
+        <v>0.9731578977018803</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.012305227892466</v>
+        <v>1.012104983216971</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.012774911381847</v>
+        <v>1.01270061780829</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.026612186479851</v>
+        <v>1.003010300258802</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.000584305851463</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.012732365416601</v>
+        <v>1.012816678462337</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.013793395867985</v>
+        <v>1.013884735000865</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.027258142238442</v>
+        <v>1.001356135221633</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.00036535653152</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.013306093239926</v>
+        <v>1.001797303055132</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9598635052949792</v>
+        <v>0.9640601466769982</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9598635052949792</v>
+        <v>0.9640601466769982</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9536959584526638</v>
+        <v>0.9541275956888926</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9972670122368795</v>
+        <v>0.9966653501066387</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.968853648572318</v>
+        <v>0.9685505895658693</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.968853648572318</v>
+        <v>0.9685505895658693</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9583136823928589</v>
+        <v>0.9577139965685808</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9983191540707766</v>
+        <v>0.9970704951936675</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9749949469643953</v>
+        <v>0.9749326972431519</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000327300596331</v>
+        <v>1.000399756536365</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000327300596331</v>
+        <v>1.000399756536365</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1</v>
+        <v>1.000137516544751</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.000427310320313</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.000582879071485</v>
+        <v>1.000895960965676</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.000582879071485</v>
+        <v>1.000895960965676</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1</v>
+        <v>1.000626163788382</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.001252327576764</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1</v>
+        <v>1.000282413432532</v>
       </c>
     </row>
     <row r="14">
@@ -7471,16 +7471,16 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9601776691926582</v>
+        <v>0.9644455360220813</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9601776691926582</v>
+        <v>0.9644455360220813</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9536959584526638</v>
+        <v>0.9542588040191029</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9972670122368795</v>
+        <v>0.9970912354966371</v>
       </c>
       <c r="F14" s="34" t="n">
         <v>0.9694183730874025</v>
@@ -7495,23 +7495,23 @@
         <v>0.9983191540707766</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9749949469643953</v>
+        <v>0.9752049305506222</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.001293165487251</v>
+        <v>1.001296575367399</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.001293165487251</v>
+        <v>1.001296575367399</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.001674027594763</v>
+        <v>1.001676458711318</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.002740477454469</v>
+        <v>1.002917250096892</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1.000818723683467</v>
@@ -7526,7 +7526,7 @@
         <v>1.001683675929055</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.002207252524616</v>
+        <v>1.002296854404105</v>
       </c>
     </row>
     <row r="15">
@@ -7535,13 +7535,13 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9614193378160875</v>
+        <v>0.9656960123472859</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9614193378160875</v>
+        <v>0.9656960123472859</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9552924718041272</v>
+        <v>0.9558585795039523</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>1</v>
@@ -7559,20 +7559,20 @@
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.977135119763121</v>
+        <v>0.9774311798620723</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.002259514127097</v>
+        <v>1.002107587165421</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.002259514127097</v>
+        <v>1.002107587165421</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.003071709497024</v>
+        <v>1.002976644397587</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.001535854748512</v>
+        <v>1.001488322198793</v>
       </c>
     </row>
     <row r="16">
@@ -7599,13 +7599,13 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9635916783919471</v>
+        <v>0.9677313008686078</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9635916783919471</v>
+        <v>0.9677313008686078</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9582268527622031</v>
+        <v>0.9587038305895179</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
@@ -7623,20 +7623,20 @@
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9786678713046584</v>
+        <v>0.9789165831170846</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.017041664100886</v>
+        <v>1.014032456299164</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.017041664100886</v>
+        <v>1.014032456299164</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.021087102697757</v>
+        <v>1.021727768846871</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.010543551348878</v>
+        <v>1.010863884423435</v>
       </c>
     </row>
     <row r="17">
@@ -7663,13 +7663,13 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9800128841055116</v>
+        <v>0.9813109480573796</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9800128841055116</v>
+        <v>0.9813109480573796</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9784330808141478</v>
+        <v>0.9795343258131766</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
@@ -7687,20 +7687,20 @@
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9890989898041044</v>
+        <v>0.989661369383723</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.002541132036045</v>
+        <v>1.002472238849584</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.002541132036045</v>
+        <v>1.002472238849584</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.002929079010398</v>
+        <v>1.002885571841414</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.001464539505199</v>
+        <v>1.001442785920707</v>
       </c>
     </row>
     <row r="18">
@@ -7727,13 +7727,13 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9825032262410488</v>
+        <v>0.9837369831066896</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9825032262410488</v>
+        <v>0.9837369831066896</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9812989886142398</v>
+        <v>0.9823608424814414</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
@@ -7751,20 +7751,20 @@
         <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9905612371008979</v>
+        <v>0.9911019441362255</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.017808362651278</v>
+        <v>1.016531875056635</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.017808362651278</v>
+        <v>1.016531875056635</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.019057404117138</v>
+        <v>1.017955884188138</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.009528702058569</v>
+        <v>1.008977942094069</v>
       </c>
     </row>
     <row r="19">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>19304.61333333333</v>
+        <v>18995.06666666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>576.23</v>
+        <v>966.78</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>4810.4</v>
+        <v>5327.259999999999</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>5516.94</v>
+        <v>5710.949999999999</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>5866.929999999999</v>
+        <v>7400.129999999999</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>5866.929999999999</v>
+        <v>7440.499999999999</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>5882.15</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>18995.06666666667</v>
+        <v>18959.85416666667</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>966.78</v>
+        <v>407.73</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>5327.259999999999</v>
+        <v>4573.58</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>5710.949999999999</v>
+        <v>5459.19</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>7400.129999999999</v>
+        <v>5578.179999999999</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>7440.499999999999</v>
+        <v>5668.209999999999</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7302.079999999999</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7302.079999999999</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7352.829999999999</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7352.829999999999</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>7402.829999999999</v>
+        <v>33529.93</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>18959.85416666667</v>
+        <v>18674.72833333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>407.73</v>
+        <v>332.74</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>4573.58</v>
+        <v>7527.799999999999</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>5459.19</v>
+        <v>11025.55</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>5578.179999999999</v>
+        <v>31657.73</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>5668.209999999999</v>
+        <v>31732.73</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>31732.73</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>31732.73</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>31791.79</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>31928.51</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>31928.51</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>7302.079999999999</v>
+        <v>31928.51</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>7302.079999999999</v>
+        <v>31928.51</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>7352.829999999999</v>
+        <v>31929.93</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>7352.829999999999</v>
+        <v>31929.93</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>31929.93</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>31929.93</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>31929.93</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>33529.93</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>33529.93</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>33529.93</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>33529.93</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>33529.93</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>33529.93</v>
+        <v>14989.3</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>18674.72833333333</v>
+        <v>18101.9375</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>332.74</v>
+        <v>1200.86</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>7527.8</v>
+        <v>5541.190000000001</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>11025.55</v>
+        <v>9706.450000000001</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>31657.73</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>31732.73</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>31732.73</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>31732.73</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>31791.79</v>
+        <v>11444.53</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>31928.51</v>
+        <v>13072.5</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>31928.51</v>
+        <v>13077.34</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>31928.51</v>
+        <v>13077.34</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>31928.51</v>
+        <v>13077.34</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>31929.93</v>
+        <v>13077.34</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>31929.93</v>
+        <v>13129.06</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>31929.93</v>
+        <v>13129.06</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>31929.93</v>
+        <v>14729.06</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>31929.93</v>
+        <v>14989.3</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>33529.93</v>
+        <v>14989.3</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>33529.93</v>
+        <v>14989.3</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>33529.93</v>
+        <v>14989.3</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>33529.93</v>
+        <v>14989.3</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>14989.3</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>18101.9375</v>
+        <v>18045.39916666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1200.86</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>5541.19</v>
+        <v>5210.08</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>9706.450000000001</v>
+        <v>5413.47</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>5413.47</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>5413.47</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>5413.47</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>11444.53</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>13072.5</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>13077.34</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>13077.34</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>13077.34</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>13077.34</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>13129.06</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>13129.06</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>14729.06</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>14989.3</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>14989.3</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>14989.3</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>14989.3</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>5873.820000000001</v>
+        <v>16085.54</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>18045.39916666667</v>
+        <v>17623.3575</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v/>
+        <v>1182.75</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>5210.08</v>
+        <v>7375.17</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>5413.47</v>
+        <v>7628.09</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>5413.47</v>
+        <v>9410.889999999999</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>5413.47</v>
+        <v>9410.889999999999</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>5413.47</v>
+        <v>11248.12</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>5593.030000000001</v>
+        <v>14107.41</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>5593.030000000001</v>
+        <v>15739.41</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>5593.030000000001</v>
+        <v>15759.32</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15759.32</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15791.9</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15823.04</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15823.04</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15823.04</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>16085.54</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>5873.820000000001</v>
+        <v>16085.54</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>5873.820000000001</v>
+        <v>16085.54</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>5873.820000000001</v>
+        <v>16085.54</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>5873.820000000001</v>
+        <v>16085.54</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>16085.54</v>
+        <v>12825.86</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>17623.3575</v>
+        <v>16908.89</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1182.75</v>
+        <v>176.1</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>7375.17</v>
+        <v>298.78</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>7628.09</v>
+        <v>1015.34</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>9410.889999999999</v>
+        <v>1015.34</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>9410.889999999999</v>
+        <v>4848.53</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>11248.12</v>
+        <v>6478.389999999999</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>14107.41</v>
+        <v>6594.749999999999</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>15739.41</v>
+        <v>9265.57</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>15759.32</v>
+        <v>10944.73</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>15759.32</v>
+        <v>10944.73</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>15791.9</v>
+        <v>11090.16</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>15823.04</v>
+        <v>12825.86</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>15823.04</v>
+        <v>12825.86</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>15823.04</v>
+        <v>12825.86</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>16085.54</v>
+        <v>12825.86</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>16085.54</v>
+        <v>12825.86</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>16085.54</v>
+        <v>12825.86</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>16085.54</v>
+        <v>12825.86</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>12825.86</v>
+        <v>8742.42</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>16908.89</v>
+        <v>15826.14333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>176.1</v>
+        <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>298.78</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1015.34</v>
+        <v/>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1015.34</v>
+        <v>5108.440000000001</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>4848.53</v>
+        <v>6872.43</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>6478.389999999999</v>
+        <v>8525.440000000001</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>6594.749999999999</v>
+        <v>8733.82</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>9265.57</v>
+        <v>8742.42</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>10944.73</v>
+        <v>8742.42</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>10944.73</v>
+        <v>8742.42</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>11090.16</v>
+        <v>8742.42</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>12825.86</v>
+        <v>8742.42</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>12825.86</v>
+        <v>8742.42</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>12825.86</v>
+        <v>8742.42</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>12825.86</v>
+        <v>8742.42</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>12825.86</v>
+        <v>8742.42</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>12825.86</v>
+        <v>8742.42</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>8742.42</v>
+        <v>29325.60000000001</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>15826.14333333333</v>
+        <v>15793.34833333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9634,46 +9634,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v/>
+        <v>4756.29</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>5108.440000000001</v>
+        <v>6992.66</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>6872.43</v>
+        <v>27053.47</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>8525.440000000001</v>
+        <v>28817.51</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>8733.82</v>
+        <v>28856.25</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>8742.42</v>
+        <v>28943.41</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>8742.42</v>
+        <v>28974.22</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>8742.42</v>
+        <v>28974.22</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>8742.42</v>
+        <v>28974.22</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>8742.42</v>
+        <v>29178.22</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>8742.42</v>
+        <v>29178.22</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>8742.42</v>
+        <v>29325.60000000001</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>8742.42</v>
+        <v>29325.60000000001</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>8742.42</v>
+        <v>29325.60000000001</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>29325.60000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>15793.34833333333</v>
+        <v>15232.275</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9758,46 +9758,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v/>
+        <v>2497.04</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>4756.29</v>
+        <v>10098.78</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>6992.66</v>
+        <v>10354.23</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>27053.47</v>
+        <v>12034.83</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>28817.51</v>
+        <v>12117.42</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>28856.25</v>
+        <v>13914.95</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>28943.41</v>
+        <v>14101.48</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>28974.22</v>
+        <v>15167.86</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>28974.22</v>
+        <v>15858.31</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>28974.22</v>
+        <v>15858.31</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>29178.22</v>
+        <v>15858.31</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>29178.22</v>
+        <v>15858.31</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>29325.60000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>29325.60000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>15858.31</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>15232.275</v>
+        <v>14555.64166666667</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v/>
+        <v>604.13</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>2497.04</v>
+        <v>1918.73</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>10098.78</v>
+        <v>3154.87</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>10354.23</v>
+        <v>3297.62</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>12034.83</v>
+        <v>5006.51</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>12117.42</v>
+        <v>5006.51</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>13914.95</v>
+        <v>5369.09</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>14101.48</v>
+        <v>5369.09</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>15167.86</v>
+        <v>5481.59</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>15858.31</v>
+        <v>5481.59</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>15858.31</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>15858.31</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>15858.31</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>15858.31</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>5483.650000000001</v>
+        <v>2749.189999999999</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>14555.64166666666</v>
+        <v>13979.56583333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>604.13</v>
+        <v>824.88</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1918.73</v>
+        <v>2038.22</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>3154.87</v>
+        <v>2357.4</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>3297.62</v>
+        <v>2541.07</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>5006.51</v>
+        <v>2677.48</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>5006.51</v>
+        <v>2724.199999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>5369.09</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>5369.09</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>5481.59</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>5481.59</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>5483.650000000001</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>5483.650000000001</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>5483.650000000001</v>
+        <v>2749.189999999999</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>2738.899999999999</v>
+        <v>9398.379999999999</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>13979.56583333333</v>
+        <v>13938.71416666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>824.88</v>
+        <v>915.1600000000001</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>2038.22</v>
+        <v>3782.7</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>2357.4</v>
+        <v>7400.28</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>2541.07</v>
+        <v>7414.679999999999</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2677.48</v>
+        <v>7591.629999999999</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2724.199999999999</v>
+        <v>7694.029999999999</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2738.899999999999</v>
+        <v>9339.709999999999</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2738.899999999999</v>
+        <v>9339.709999999999</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>2738.899999999999</v>
+        <v>9354.509999999998</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>2738.899999999999</v>
+        <v>9388.089999999998</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>2738.899999999999</v>
+        <v>9388.089999999998</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>2738.899999999999</v>
+        <v>9398.379999999999</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>9388.089999999998</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>13938.71416666667</v>
+        <v>13913.1975</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>915.1600000000001</v>
+        <v>212.92</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>3782.7</v>
+        <v>2210.4</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>7400.28</v>
+        <v>2301.19</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>7414.679999999999</v>
+        <v>2937.21</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>7591.629999999999</v>
+        <v>4079.64</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>7694.029999999999</v>
+        <v>4101.49</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>9339.709999999999</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>9339.709999999999</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>9354.509999999998</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>9388.089999999998</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>9388.089999999998</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>4187.929999999999</v>
+        <v>6051.03</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>13913.1975</v>
+        <v>13879.35666666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>212.92</v>
+        <v>676.89</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>2210.4</v>
+        <v>1718.88</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>2301.19</v>
+        <v>2928.17</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>2937.21</v>
+        <v>3266.74</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>4079.64</v>
+        <v>4157.84</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>4101.49</v>
+        <v>5999.92</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>4187.929999999999</v>
+        <v>5999.92</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>4187.929999999999</v>
+        <v>5999.92</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>4187.929999999999</v>
+        <v>6012.08</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>4187.929999999999</v>
+        <v>6051.03</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>6012.08</v>
+        <v>3353</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>13879.35666666667</v>
+        <v>13527.49666666667</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>676.89</v>
+        <v>61.2</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>1718.88</v>
+        <v>1932.35</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>2928.17</v>
+        <v>3088.06</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>3266.74</v>
+        <v>3296.09</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>4157.84</v>
+        <v>3317.56</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>5999.92</v>
+        <v>3353</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>5999.92</v>
+        <v>3353</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>5999.92</v>
+        <v>3353</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>6012.08</v>
+        <v>3353</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>3353</v>
+        <v>6769.429999999999</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>13527.49666666667</v>
+        <v>13282.21333333333</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>61.2</v>
+        <v>29.69</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>1932.35</v>
+        <v>4382.73</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>3088.06</v>
+        <v>4848.9</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>3296.090000000001</v>
+        <v>6678.33</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>3317.56</v>
+        <v>6732.07</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>3353</v>
+        <v>6732.07</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>3353</v>
+        <v>6769.429999999999</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>3353</v>
+        <v>6769.429999999999</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>6769.429999999999</v>
+        <v>3172.76</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>13282.21333333333</v>
+        <v>12966.775</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>29.69</v>
+        <v>360.38</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>4382.73</v>
+        <v>1584.75</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>4848.9</v>
+        <v>2795.97</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>6678.33</v>
+        <v>2883.96</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>6732.07</v>
+        <v>2883.96</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>6732.07</v>
+        <v>3172.76</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>6769.429999999999</v>
+        <v>3172.76</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>3172.760000000001</v>
+        <v>5628.67</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>12966.775</v>
+        <v>12969.30833333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>360.38</v>
+        <v>415.54</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>1584.75</v>
+        <v>3104.45</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>2795.97</v>
+        <v>3518.51</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>2883.96</v>
+        <v>5558.54</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>2883.96</v>
+        <v>5600.67</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>3172.760000000001</v>
+        <v>5628.67</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>5600.67</v>
+        <v>8434.219999999999</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>12969.30833333333</v>
+        <v>12603.90916666667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>415.54</v>
+        <v>648.25</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>3104.45</v>
+        <v>2525.78</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>3518.51</v>
+        <v>6246.04</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>5558.54</v>
+        <v>8048.3</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>5600.67</v>
+        <v>8434.219999999999</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>8048.299999999999</v>
+        <v>25593.14</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>12603.90916666667</v>
+        <v>12585.07916666667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>648.25</v>
+        <v>263.74</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>2525.78</v>
+        <v>23090.44</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>6246.039999999999</v>
+        <v>23789.7</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>8048.299999999999</v>
+        <v>25593.14</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>23789.7</v>
+        <v>2070.91</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>12585.07916666666</v>
+        <v>12575.38416666666</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>100</v>
@@ -11384,13 +11384,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>263.74</v>
+        <v>640.17</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>23090.44</v>
+        <v>1809.74</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>23789.7</v>
+        <v>2070.91</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>1809.74</v>
+        <v>2561.95</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>12575.38416666666</v>
+        <v>12228.94916666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>100</v>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>640.17</v>
+        <v>978.96</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>1809.74</v>
+        <v>2561.95</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11602,7 +11602,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>978.96</v>
+        <v>286.2</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>12228.94916666667</v>
+        <v>12213.65333333333</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>100</v>
@@ -11660,7 +11660,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>978.96</v>
+        <v>286.2</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
